--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Robo1-Robo1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Robo1-Robo1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Robo1</t>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +516,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1956266666666666</v>
+        <v>0.6527809999999999</v>
       </c>
       <c r="H2">
-        <v>0.58688</v>
+        <v>1.958343</v>
       </c>
       <c r="I2">
-        <v>0.007083239896715625</v>
+        <v>0.03189207176889092</v>
       </c>
       <c r="J2">
-        <v>0.007083239896715625</v>
+        <v>0.03189207176889092</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1956266666666666</v>
+        <v>0.6527809999999999</v>
       </c>
       <c r="N2">
-        <v>0.58688</v>
+        <v>1.958343</v>
       </c>
       <c r="O2">
-        <v>0.007083239896715625</v>
+        <v>0.03189207176889092</v>
       </c>
       <c r="P2">
-        <v>0.007083239896715625</v>
+        <v>0.03189207176889092</v>
       </c>
       <c r="Q2">
-        <v>0.0382697927111111</v>
+        <v>0.4261230339609999</v>
       </c>
       <c r="R2">
-        <v>0.3444281344</v>
+        <v>3.835107305649</v>
       </c>
       <c r="S2">
-        <v>5.017228743442398E-05</v>
+        <v>0.001017104241712089</v>
       </c>
       <c r="T2">
-        <v>5.017228743442398E-05</v>
+        <v>0.001017104241712089</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +578,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1956266666666666</v>
+        <v>0.6527809999999999</v>
       </c>
       <c r="H3">
-        <v>0.58688</v>
+        <v>1.958343</v>
       </c>
       <c r="I3">
-        <v>0.007083239896715625</v>
+        <v>0.03189207176889092</v>
       </c>
       <c r="J3">
-        <v>0.007083239896715625</v>
+        <v>0.03189207176889092</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +617,22 @@
         <v>50.619467</v>
       </c>
       <c r="O3">
-        <v>0.6109423190513904</v>
+        <v>0.824349807192614</v>
       </c>
       <c r="P3">
-        <v>0.6109423190513905</v>
+        <v>0.8243498071926141</v>
       </c>
       <c r="Q3">
-        <v>3.300839199217777</v>
+        <v>11.01447542924233</v>
       </c>
       <c r="R3">
-        <v>29.70755279296</v>
+        <v>99.130278863181</v>
       </c>
       <c r="S3">
-        <v>0.004327451008896775</v>
+        <v>0.02629022321365823</v>
       </c>
       <c r="T3">
-        <v>0.004327451008896776</v>
+        <v>0.02629022321365824</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +640,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1956266666666666</v>
+        <v>0.6527809999999999</v>
       </c>
       <c r="H4">
-        <v>0.58688</v>
+        <v>1.958343</v>
       </c>
       <c r="I4">
-        <v>0.007083239896715625</v>
+        <v>0.03189207176889092</v>
       </c>
       <c r="J4">
-        <v>0.007083239896715625</v>
+        <v>0.03189207176889092</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,90 +673,90 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.521927</v>
+        <v>2.942504666666667</v>
       </c>
       <c r="N4">
-        <v>31.565781</v>
+        <v>8.827514000000001</v>
       </c>
       <c r="O4">
-        <v>0.3809773707575451</v>
+        <v>0.143758121038495</v>
       </c>
       <c r="P4">
-        <v>0.3809773707575451</v>
+        <v>0.143758121038495</v>
       </c>
       <c r="Q4">
-        <v>2.05836950592</v>
+        <v>1.920811138811333</v>
       </c>
       <c r="R4">
-        <v>18.52532555328</v>
+        <v>17.287300249302</v>
       </c>
       <c r="S4">
-        <v>0.002698554112295664</v>
+        <v>0.004584744313520589</v>
       </c>
       <c r="T4">
-        <v>0.002698554112295664</v>
+        <v>0.004584744313520589</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1956266666666666</v>
+        <v>16.87315566666667</v>
       </c>
       <c r="H5">
-        <v>0.58688</v>
+        <v>50.619467</v>
       </c>
       <c r="I5">
-        <v>0.007083239896715625</v>
+        <v>0.824349807192614</v>
       </c>
       <c r="J5">
-        <v>0.007083239896715625</v>
+        <v>0.8243498071926141</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.02753733333333333</v>
+        <v>0.6527809999999999</v>
       </c>
       <c r="N5">
-        <v>0.082612</v>
+        <v>1.958343</v>
       </c>
       <c r="O5">
-        <v>0.0009970702943488811</v>
+        <v>0.03189207176889092</v>
       </c>
       <c r="P5">
-        <v>0.0009970702943488811</v>
+        <v>0.03189207176889092</v>
       </c>
       <c r="Q5">
-        <v>0.005387036728888888</v>
+        <v>11.01447542924233</v>
       </c>
       <c r="R5">
-        <v>0.04848333056</v>
+        <v>99.130278863181</v>
       </c>
       <c r="S5">
-        <v>7.062488088761986E-06</v>
+        <v>0.02629022321365823</v>
       </c>
       <c r="T5">
-        <v>7.062488088761986E-06</v>
+        <v>0.02629022321365824</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +764,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,40 +785,40 @@
         <v>50.619467</v>
       </c>
       <c r="I6">
-        <v>0.6109423190513904</v>
+        <v>0.824349807192614</v>
       </c>
       <c r="J6">
-        <v>0.6109423190513905</v>
+        <v>0.8243498071926141</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1956266666666666</v>
+        <v>16.87315566666667</v>
       </c>
       <c r="N6">
-        <v>0.58688</v>
+        <v>50.619467</v>
       </c>
       <c r="O6">
-        <v>0.007083239896715625</v>
+        <v>0.824349807192614</v>
       </c>
       <c r="P6">
-        <v>0.007083239896715625</v>
+        <v>0.8243498071926141</v>
       </c>
       <c r="Q6">
-        <v>3.300839199217777</v>
+        <v>284.7033821515654</v>
       </c>
       <c r="R6">
-        <v>29.70755279296</v>
+        <v>2562.330439364089</v>
       </c>
       <c r="S6">
-        <v>0.004327451008896775</v>
+        <v>0.6795526046184999</v>
       </c>
       <c r="T6">
-        <v>0.004327451008896776</v>
+        <v>0.6795526046185</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +826,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,10 +847,10 @@
         <v>50.619467</v>
       </c>
       <c r="I7">
-        <v>0.6109423190513904</v>
+        <v>0.824349807192614</v>
       </c>
       <c r="J7">
-        <v>0.6109423190513905</v>
+        <v>0.8243498071926141</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,42 +859,42 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.87315566666667</v>
+        <v>2.942504666666667</v>
       </c>
       <c r="N7">
-        <v>50.619467</v>
+        <v>8.827514000000001</v>
       </c>
       <c r="O7">
-        <v>0.6109423190513904</v>
+        <v>0.143758121038495</v>
       </c>
       <c r="P7">
-        <v>0.6109423190513905</v>
+        <v>0.143758121038495</v>
       </c>
       <c r="Q7">
-        <v>284.7033821515654</v>
+        <v>49.64933929055977</v>
       </c>
       <c r="R7">
-        <v>2562.330439364089</v>
+        <v>446.844053615038</v>
       </c>
       <c r="S7">
-        <v>0.3732505172078909</v>
+        <v>0.1185069793604558</v>
       </c>
       <c r="T7">
-        <v>0.373250517207891</v>
+        <v>0.1185069793604558</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -906,16 +903,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>16.87315566666667</v>
+        <v>2.942504666666667</v>
       </c>
       <c r="H8">
-        <v>50.619467</v>
+        <v>8.827514000000001</v>
       </c>
       <c r="I8">
-        <v>0.6109423190513904</v>
+        <v>0.143758121038495</v>
       </c>
       <c r="J8">
-        <v>0.6109423190513905</v>
+        <v>0.143758121038495</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,43 +921,43 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.521927</v>
+        <v>0.6527809999999999</v>
       </c>
       <c r="N8">
-        <v>31.565781</v>
+        <v>1.958343</v>
       </c>
       <c r="O8">
-        <v>0.3809773707575451</v>
+        <v>0.03189207176889092</v>
       </c>
       <c r="P8">
-        <v>0.3809773707575451</v>
+        <v>0.03189207176889092</v>
       </c>
       <c r="Q8">
-        <v>177.538112184303</v>
+        <v>1.920811138811333</v>
       </c>
       <c r="R8">
-        <v>1597.843009658727</v>
+        <v>17.287300249302</v>
       </c>
       <c r="S8">
-        <v>0.232755198396716</v>
+        <v>0.004584744313520589</v>
       </c>
       <c r="T8">
-        <v>0.232755198396716</v>
+        <v>0.004584744313520589</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -968,46 +965,46 @@
         <v>1</v>
       </c>
       <c r="G9">
+        <v>2.942504666666667</v>
+      </c>
+      <c r="H9">
+        <v>8.827514000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.143758121038495</v>
+      </c>
+      <c r="J9">
+        <v>0.143758121038495</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
         <v>16.87315566666667</v>
       </c>
-      <c r="H9">
+      <c r="N9">
         <v>50.619467</v>
       </c>
-      <c r="I9">
-        <v>0.6109423190513904</v>
-      </c>
-      <c r="J9">
-        <v>0.6109423190513905</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.02753733333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.082612</v>
-      </c>
       <c r="O9">
-        <v>0.0009970702943488811</v>
+        <v>0.824349807192614</v>
       </c>
       <c r="P9">
-        <v>0.0009970702943488811</v>
+        <v>0.8243498071926141</v>
       </c>
       <c r="Q9">
-        <v>0.4646417119782222</v>
+        <v>49.64933929055977</v>
       </c>
       <c r="R9">
-        <v>4.181775407804</v>
+        <v>446.844053615038</v>
       </c>
       <c r="S9">
-        <v>0.0006091524378867578</v>
+        <v>0.1185069793604558</v>
       </c>
       <c r="T9">
-        <v>0.000609152437886758</v>
+        <v>0.1185069793604558</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,13 +1012,13 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1030,480 +1027,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.521927</v>
+        <v>2.942504666666667</v>
       </c>
       <c r="H10">
-        <v>31.565781</v>
+        <v>8.827514000000001</v>
       </c>
       <c r="I10">
-        <v>0.3809773707575451</v>
+        <v>0.143758121038495</v>
       </c>
       <c r="J10">
-        <v>0.3809773707575451</v>
+        <v>0.143758121038495</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1956266666666666</v>
+        <v>2.942504666666667</v>
       </c>
       <c r="N10">
-        <v>0.58688</v>
+        <v>8.827514000000001</v>
       </c>
       <c r="O10">
-        <v>0.007083239896715625</v>
+        <v>0.143758121038495</v>
       </c>
       <c r="P10">
-        <v>0.007083239896715625</v>
+        <v>0.143758121038495</v>
       </c>
       <c r="Q10">
-        <v>2.05836950592</v>
+        <v>8.658333713355113</v>
       </c>
       <c r="R10">
-        <v>18.52532555328</v>
+        <v>77.92500342019601</v>
       </c>
       <c r="S10">
-        <v>0.002698554112295664</v>
+        <v>0.02066639736451857</v>
       </c>
       <c r="T10">
-        <v>0.002698554112295664</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>10.521927</v>
-      </c>
-      <c r="H11">
-        <v>31.565781</v>
-      </c>
-      <c r="I11">
-        <v>0.3809773707575451</v>
-      </c>
-      <c r="J11">
-        <v>0.3809773707575451</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>16.87315566666667</v>
-      </c>
-      <c r="N11">
-        <v>50.619467</v>
-      </c>
-      <c r="O11">
-        <v>0.6109423190513904</v>
-      </c>
-      <c r="P11">
-        <v>0.6109423190513905</v>
-      </c>
-      <c r="Q11">
-        <v>177.538112184303</v>
-      </c>
-      <c r="R11">
-        <v>1597.843009658727</v>
-      </c>
-      <c r="S11">
-        <v>0.232755198396716</v>
-      </c>
-      <c r="T11">
-        <v>0.232755198396716</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>10.521927</v>
-      </c>
-      <c r="H12">
-        <v>31.565781</v>
-      </c>
-      <c r="I12">
-        <v>0.3809773707575451</v>
-      </c>
-      <c r="J12">
-        <v>0.3809773707575451</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>10.521927</v>
-      </c>
-      <c r="N12">
-        <v>31.565781</v>
-      </c>
-      <c r="O12">
-        <v>0.3809773707575451</v>
-      </c>
-      <c r="P12">
-        <v>0.3809773707575451</v>
-      </c>
-      <c r="Q12">
-        <v>110.710947793329</v>
-      </c>
-      <c r="R12">
-        <v>996.3985301399608</v>
-      </c>
-      <c r="S12">
-        <v>0.145143757029332</v>
-      </c>
-      <c r="T12">
-        <v>0.145143757029332</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>10.521927</v>
-      </c>
-      <c r="H13">
-        <v>31.565781</v>
-      </c>
-      <c r="I13">
-        <v>0.3809773707575451</v>
-      </c>
-      <c r="J13">
-        <v>0.3809773707575451</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.02753733333333333</v>
-      </c>
-      <c r="N13">
-        <v>0.082612</v>
-      </c>
-      <c r="O13">
-        <v>0.0009970702943488811</v>
-      </c>
-      <c r="P13">
-        <v>0.0009970702943488811</v>
-      </c>
-      <c r="Q13">
-        <v>0.289745811108</v>
-      </c>
-      <c r="R13">
-        <v>2.607712299972</v>
-      </c>
-      <c r="S13">
-        <v>0.0003798612192014883</v>
-      </c>
-      <c r="T13">
-        <v>0.0003798612192014882</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.02753733333333333</v>
-      </c>
-      <c r="H14">
-        <v>0.082612</v>
-      </c>
-      <c r="I14">
-        <v>0.0009970702943488811</v>
-      </c>
-      <c r="J14">
-        <v>0.0009970702943488811</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>0.1956266666666666</v>
-      </c>
-      <c r="N14">
-        <v>0.58688</v>
-      </c>
-      <c r="O14">
-        <v>0.007083239896715625</v>
-      </c>
-      <c r="P14">
-        <v>0.007083239896715625</v>
-      </c>
-      <c r="Q14">
-        <v>0.005387036728888888</v>
-      </c>
-      <c r="R14">
-        <v>0.04848333056</v>
-      </c>
-      <c r="S14">
-        <v>7.062488088761986E-06</v>
-      </c>
-      <c r="T14">
-        <v>7.062488088761986E-06</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.02753733333333333</v>
-      </c>
-      <c r="H15">
-        <v>0.082612</v>
-      </c>
-      <c r="I15">
-        <v>0.0009970702943488811</v>
-      </c>
-      <c r="J15">
-        <v>0.0009970702943488811</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>16.87315566666667</v>
-      </c>
-      <c r="N15">
-        <v>50.619467</v>
-      </c>
-      <c r="O15">
-        <v>0.6109423190513904</v>
-      </c>
-      <c r="P15">
-        <v>0.6109423190513905</v>
-      </c>
-      <c r="Q15">
-        <v>0.4646417119782222</v>
-      </c>
-      <c r="R15">
-        <v>4.181775407804</v>
-      </c>
-      <c r="S15">
-        <v>0.0006091524378867578</v>
-      </c>
-      <c r="T15">
-        <v>0.000609152437886758</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.02753733333333333</v>
-      </c>
-      <c r="H16">
-        <v>0.082612</v>
-      </c>
-      <c r="I16">
-        <v>0.0009970702943488811</v>
-      </c>
-      <c r="J16">
-        <v>0.0009970702943488811</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>10.521927</v>
-      </c>
-      <c r="N16">
-        <v>31.565781</v>
-      </c>
-      <c r="O16">
-        <v>0.3809773707575451</v>
-      </c>
-      <c r="P16">
-        <v>0.3809773707575451</v>
-      </c>
-      <c r="Q16">
-        <v>0.289745811108</v>
-      </c>
-      <c r="R16">
-        <v>2.607712299972</v>
-      </c>
-      <c r="S16">
-        <v>0.0003798612192014883</v>
-      </c>
-      <c r="T16">
-        <v>0.0003798612192014882</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.02753733333333333</v>
-      </c>
-      <c r="H17">
-        <v>0.082612</v>
-      </c>
-      <c r="I17">
-        <v>0.0009970702943488811</v>
-      </c>
-      <c r="J17">
-        <v>0.0009970702943488811</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.02753733333333333</v>
-      </c>
-      <c r="N17">
-        <v>0.082612</v>
-      </c>
-      <c r="O17">
-        <v>0.0009970702943488811</v>
-      </c>
-      <c r="P17">
-        <v>0.0009970702943488811</v>
-      </c>
-      <c r="Q17">
-        <v>0.0007583047271111111</v>
-      </c>
-      <c r="R17">
-        <v>0.006824742544</v>
-      </c>
-      <c r="S17">
-        <v>9.941491718729643E-07</v>
-      </c>
-      <c r="T17">
-        <v>9.941491718729643E-07</v>
+        <v>0.02066639736451857</v>
       </c>
     </row>
   </sheetData>
